--- a/_Out/Server/NFDataCfg/Excel_Ini/Cost.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Cost.xlsx
@@ -85,23 +85,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="44"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="44"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -110,14 +99,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -479,11 +465,11 @@
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="22.625" customWidth="1"/>
+    <col min="6" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -517,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -533,31 +519,6 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="G9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Cost.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Cost.xlsx
@@ -1,18 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -20,14 +15,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Skill" type="4" refreshedVersion="2" background="1" saveData="1">
-    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" name="Skill" type="4" background="1" refreshedVersion="2" saveData="1">
+    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlFormat="all" htmlTables="1"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>ID</t>
   </si>
@@ -44,27 +39,62 @@
     <t>CostHonour</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>消耗钱</t>
+  </si>
+  <si>
+    <t>消耗钻石</t>
+  </si>
+  <si>
+    <t>消耗体力</t>
+  </si>
+  <si>
+    <t>消耗荣誉值</t>
+  </si>
+  <si>
     <t>Cost_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Cost_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -72,20 +102,365 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -93,33 +468,431 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -169,71 +942,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,78 +1224,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
     <col min="6" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" s="1" customFormat="1" ht="12" customHeight="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:9">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:9">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:9">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="B4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="27.75" spans="1:9">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
         <v>100</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6"/>
+  </dataValidations>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Cost.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Cost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -109,8 +109,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,35 +120,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,6 +164,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -169,14 +192,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,6 +213,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -197,17 +221,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,40 +237,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,181 +281,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,17 +555,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,15 +570,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,21 +598,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -651,8 +616,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,148 +661,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1226,21 +1226,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
     <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="12" customHeight="1" spans="1:5">
@@ -1260,7 +1258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
+    <row r="2" s="2" customFormat="1" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1276,12 +1274,8 @@
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:9">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1297,12 +1291,8 @@
       <c r="E3" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:9">
+    <row r="4" s="2" customFormat="1" spans="1:5">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1318,12 +1308,8 @@
       <c r="E4" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:9">
+    <row r="5" s="2" customFormat="1" spans="1:5">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1339,12 +1325,8 @@
       <c r="E5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:9">
+    <row r="6" s="2" customFormat="1" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1360,12 +1342,8 @@
       <c r="E6" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
     </row>
-    <row r="7" s="3" customFormat="1" ht="27.75" spans="1:9">
+    <row r="7" s="3" customFormat="1" ht="27.75" spans="1:5">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -1381,10 +1359,6 @@
       <c r="E7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">

--- a/_Out/Server/NFDataCfg/Excel_Ini/Cost.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Cost.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
-    <t>ID</t>
+    <t>Id</t>
   </si>
   <si>
     <t>CostMoney</t>
@@ -89,12 +89,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -103,17 +103,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,6 +114,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,17 +133,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,6 +171,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,6 +192,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -170,10 +215,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,13 +230,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -199,68 +239,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,25 +268,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,162 +454,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -469,92 +468,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,23 +495,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,11 +516,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,204 +565,183 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1229,7 +1132,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1239,22 +1142,24 @@
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
     <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" customHeight="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1279,16 +1184,16 @@
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7" t="b">
+      <c r="B3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1296,16 +1201,16 @@
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="b">
+      <c r="B4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1313,16 +1218,16 @@
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="b">
+      <c r="B5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1330,73 +1235,76 @@
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="b">
+      <c r="B6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="27.75" spans="1:5">
-      <c r="A7" s="8" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:5">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>100</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:E6">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Cost.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Cost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -89,17 +89,98 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -111,74 +192,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,62 +236,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,37 +281,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,25 +413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,13 +431,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,102 +449,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -468,35 +475,92 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +576,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,8 +631,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,176 +647,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1132,7 +1241,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A1" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1147,155 +1256,155 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="b">
+      <c r="B3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:5">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="b">
+      <c r="B4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="b">
+      <c r="B5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="b">
+      <c r="B6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:5">
-      <c r="A7" s="5" t="s">
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="12">
         <v>100</v>
       </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
         <v>0</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Cost.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Cost.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>Id</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>Desc</t>
@@ -89,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -110,6 +113,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -117,28 +127,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -146,7 +134,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,9 +163,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,38 +202,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,6 +225,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,9 +248,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,13 +284,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,174 +392,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -514,18 +517,31 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -559,8 +575,54 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,24 +642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -613,30 +657,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -662,157 +682,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,16 +851,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,10 +872,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1238,10 +1273,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1256,162 +1291,179 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="b">
+      <c r="B3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="b">
+      <c r="B4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8" t="b">
+      <c r="B5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8" t="b">
+      <c r="B6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:5">
+      <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:5">
+      <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="D8" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="14">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="12">
+      <c r="B10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="14">
         <v>100</v>
       </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:E6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:E6 B7:J7">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Cost.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Cost.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Skill" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Skill" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -90,14 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -111,159 +118,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,194 +138,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -593,251 +263,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -888,58 +316,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1271,26 +657,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -1324,7 +710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:5">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1341,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:5">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:5">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -1375,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:5">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1392,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1409,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:5">
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -1426,7 +812,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
         <v>17</v>
       </c>
@@ -1443,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -1467,7 +853,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Cost.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Cost.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -98,13 +98,17 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -115,6 +119,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -317,13 +326,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -658,25 +670,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" customWidth="1"/>
     <col min="6" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -693,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -710,7 +722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -727,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -744,7 +756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -761,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -778,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -795,61 +807,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C11" s="14">
         <v>100</v>
       </c>
-      <c r="D10" s="14">
-        <v>0</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:E6 B7:J7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:E6 B7:J8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
